--- a/Documents/ТЗ/Форма экранная для расчета платы с примерами 18.11.2022.xlsx
+++ b/Documents/ТЗ/Форма экранная для расчета платы с примерами 18.11.2022.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D4382093-6A4B-4714-8147-3032DAE896FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4C4AAC-DF00-41DC-85A7-02DF5151F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПЛАТА " sheetId="2" r:id="rId1"/>
@@ -530,10 +530,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="49" x14ac:knownFonts="1">
     <font>
@@ -1651,7 +1651,7 @@
     <xf numFmtId="0" fontId="8" fillId="31" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="122">
@@ -1788,13 +1788,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="72" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="72" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="41" fillId="0" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="72" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1856,7 +1856,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1869,130 +1869,130 @@
     <xf numFmtId="2" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="47" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
-    <cellStyle name="20% — акцент1 2" xfId="1"/>
+    <cellStyle name="20% — акцент1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="20% — акцент2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3 2" xfId="3"/>
-    <cellStyle name="20% — акцент4 2" xfId="4"/>
+    <cellStyle name="20% — акцент3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% — акцент4 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="20% — акцент5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6 2" xfId="6"/>
+    <cellStyle name="20% — акцент6 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="40% — акцент1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2 2" xfId="8"/>
-    <cellStyle name="40% — акцент3 2" xfId="9"/>
-    <cellStyle name="40% — акцент4 2" xfId="10"/>
+    <cellStyle name="40% — акцент2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% — акцент3 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% — акцент4 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="40% — акцент5" xfId="11" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% — акцент6" xfId="12" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% — акцент1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2 2" xfId="14"/>
+    <cellStyle name="60% — акцент2 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="60% — акцент3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4 2" xfId="16"/>
+    <cellStyle name="60% — акцент4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="60% — акцент5" xfId="17" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% — акцент6" xfId="18" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Prozent" xfId="19"/>
-    <cellStyle name="Акцент1 2" xfId="20"/>
-    <cellStyle name="Акцент2 2" xfId="21"/>
-    <cellStyle name="Акцент3 2" xfId="22"/>
-    <cellStyle name="Акцент4 2" xfId="23"/>
-    <cellStyle name="Акцент5 2" xfId="24"/>
-    <cellStyle name="Акцент6 2" xfId="25"/>
-    <cellStyle name="Ввод  2" xfId="26"/>
-    <cellStyle name="Вывод 2" xfId="27"/>
-    <cellStyle name="Вычисление 2" xfId="28"/>
-    <cellStyle name="Гиперссылка 2" xfId="29"/>
-    <cellStyle name="Заголовок 1 2" xfId="30"/>
-    <cellStyle name="Заголовок 2 2" xfId="31"/>
-    <cellStyle name="Заголовок 3 2" xfId="32"/>
-    <cellStyle name="Заголовок 4 2" xfId="33"/>
-    <cellStyle name="Итог 2" xfId="34"/>
-    <cellStyle name="Контрольная ячейка 2" xfId="35"/>
-    <cellStyle name="Название 2" xfId="36"/>
-    <cellStyle name="Название 3" xfId="37"/>
-    <cellStyle name="Нейтральный 2" xfId="38"/>
+    <cellStyle name="Prozent" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Акцент1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Акцент2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Акцент3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Акцент4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Акцент5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Акцент6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Ввод  2" xfId="26" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Вывод 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Вычисление 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Гиперссылка 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Заголовок 1 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Заголовок 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Заголовок 3 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Заголовок 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Итог 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Название 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Название 3" xfId="37" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Нейтральный 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 10" xfId="39"/>
-    <cellStyle name="Обычный 10 2" xfId="40"/>
-    <cellStyle name="Обычный 16" xfId="41"/>
-    <cellStyle name="Обычный 2" xfId="42"/>
-    <cellStyle name="Обычный 2 2" xfId="43"/>
-    <cellStyle name="Обычный 2 2 2" xfId="44"/>
-    <cellStyle name="Обычный 2 2 2 2" xfId="45"/>
-    <cellStyle name="Обычный 2 2 3" xfId="46"/>
-    <cellStyle name="Обычный 2 3" xfId="47"/>
-    <cellStyle name="Обычный 2 3 2" xfId="48"/>
-    <cellStyle name="Обычный 2 4" xfId="49"/>
-    <cellStyle name="Обычный 2 4 2" xfId="50"/>
-    <cellStyle name="Обычный 2 5" xfId="51"/>
-    <cellStyle name="Обычный 3" xfId="52"/>
-    <cellStyle name="Обычный 4" xfId="53"/>
-    <cellStyle name="Обычный 4 2" xfId="54"/>
-    <cellStyle name="Обычный 5" xfId="55"/>
-    <cellStyle name="Обычный 5 2" xfId="56"/>
-    <cellStyle name="Обычный 6" xfId="57"/>
-    <cellStyle name="Обычный 6 2" xfId="58"/>
-    <cellStyle name="Обычный 6 3" xfId="59"/>
-    <cellStyle name="Обычный 7" xfId="60"/>
-    <cellStyle name="Обычный 7 2" xfId="61"/>
-    <cellStyle name="Обычный 8" xfId="62"/>
-    <cellStyle name="Плохой 2" xfId="63"/>
-    <cellStyle name="Пояснение 2" xfId="64"/>
-    <cellStyle name="Примечание 2" xfId="65"/>
-    <cellStyle name="Примечание 2 2" xfId="66"/>
-    <cellStyle name="Примечание 2 2 2" xfId="67"/>
-    <cellStyle name="Примечание 2 3" xfId="68"/>
-    <cellStyle name="Примечание 2 4" xfId="69"/>
+    <cellStyle name="Обычный 10" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Обычный 10 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Обычный 16" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Обычный 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Обычный 2 2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Обычный 2 2 2 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Обычный 2 2 3" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Обычный 2 3" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Обычный 2 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Обычный 2 4" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Обычный 2 4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Обычный 2 5" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Обычный 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Обычный 4" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Обычный 4 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Обычный 5" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Обычный 5 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Обычный 6" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Обычный 6 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Обычный 6 3" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Обычный 7" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Обычный 7 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Обычный 8" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Плохой 2" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Пояснение 2" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Примечание 2" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Примечание 2 2" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Примечание 2 2 2" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Примечание 2 3" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Примечание 2 4" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
     <cellStyle name="Связанная ячейка" xfId="70" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Текст предупреждения" xfId="71" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Финансовый" xfId="72" builtinId="3"/>
-    <cellStyle name="Хороший 2" xfId="73"/>
+    <cellStyle name="Хороший 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5488,11 +5488,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5516,15 +5516,15 @@
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="P2" s="116" t="s">
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="P2" s="115" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P3" s="1" t="s">
@@ -5839,21 +5839,21 @@
       </c>
     </row>
     <row r="13" spans="2:18" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="113"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="111"/>
+      <c r="M13" s="111"/>
+      <c r="N13" s="112"/>
       <c r="P13" s="57">
         <v>20</v>
       </c>
@@ -5869,7 +5869,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="117" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="62" t="s">
@@ -5901,7 +5901,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="118"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="62" t="s">
         <v>98</v>
       </c>
@@ -5921,7 +5921,7 @@
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="119"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="62" t="s">
         <v>99</v>
       </c>
@@ -6048,15 +6048,15 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="113" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="120" t="s">
+      <c r="C21" s="114"/>
+      <c r="D21" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -6070,11 +6070,11 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -6086,7 +6086,7 @@
       <c r="P22" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="S22" s="110" t="s">
+      <c r="S22" s="109" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6095,9 +6095,9 @@
         <v>61</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -6111,30 +6111,30 @@
         <v>92</v>
       </c>
       <c r="R23" s="63"/>
-      <c r="S23" s="110"/>
+      <c r="S23" s="109"/>
     </row>
     <row r="24" spans="2:19" s="23" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="112"/>
-      <c r="D24" s="112"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="112"/>
-      <c r="N24" s="113"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="111"/>
+      <c r="L24" s="111"/>
+      <c r="M24" s="111"/>
+      <c r="N24" s="112"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="62" t="s">
         <v>98</v>
       </c>
       <c r="R24" s="63"/>
-      <c r="S24" s="110"/>
+      <c r="S24" s="109"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
@@ -6159,7 +6159,7 @@
         <v>99</v>
       </c>
       <c r="R25" s="63"/>
-      <c r="S25" s="110"/>
+      <c r="S25" s="109"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
@@ -6180,7 +6180,7 @@
         <v>86</v>
       </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="110"/>
+      <c r="S26" s="109"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
@@ -6274,21 +6274,21 @@
       <c r="N31" s="12"/>
     </row>
     <row r="34" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="120" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
+      <c r="C34" s="120"/>
+      <c r="D34" s="120"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="120"/>
+      <c r="H34" s="120"/>
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="51" t="s">
@@ -6735,14 +6735,14 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="109"/>
+      <c r="C67" s="107"/>
+      <c r="D67" s="107"/>
+      <c r="E67" s="107"/>
+      <c r="F67" s="107"/>
+      <c r="G67" s="108"/>
       <c r="H67" s="100"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -6825,14 +6825,14 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="107" t="s">
+      <c r="B71" s="106" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="108"/>
-      <c r="D71" s="108"/>
-      <c r="E71" s="108"/>
-      <c r="F71" s="108"/>
-      <c r="G71" s="109"/>
+      <c r="C71" s="107"/>
+      <c r="D71" s="107"/>
+      <c r="E71" s="107"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="108"/>
       <c r="H71" s="102"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -6943,7 +6943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B35:M40"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -7171,7 +7171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B45:O47"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Documents/ТЗ/Форма экранная для расчета платы с примерами 18.11.2022.xlsx
+++ b/Documents/ТЗ/Форма экранная для расчета платы с примерами 18.11.2022.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4C4AAC-DF00-41DC-85A7-02DF5151F5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297FA9D6-EAB7-4FA7-A4F3-CD37DBAC1172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПЛАТА " sheetId="2" r:id="rId1"/>
     <sheet name="ЦТЛ" sheetId="3" r:id="rId2"/>
     <sheet name="СОБСТВЕННИКИ" sheetId="4" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -5491,7 +5492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -6946,8 +6947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B35:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7174,8 +7175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B45:O47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7306,4 +7307,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E61DE8B-14D5-4D62-B1AC-EA4B25406883}">
+  <dimension ref="C9:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="C9" s="76" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="77" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="65"/>
+    </row>
+    <row r="10" spans="3:14" ht="57" x14ac:dyDescent="0.25">
+      <c r="C10" s="64">
+        <v>61849154</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="67">
+        <v>1700</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="69">
+        <v>44870.8125</v>
+      </c>
+      <c r="I10" s="69">
+        <v>44874.25</v>
+      </c>
+      <c r="J10" s="67">
+        <v>83</v>
+      </c>
+      <c r="K10" s="73">
+        <v>5879.2</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="N10" s="121" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C11" s="64">
+        <v>75079822</v>
+      </c>
+      <c r="D11" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="67">
+        <v>1705</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="69">
+        <v>44868.201388888891</v>
+      </c>
+      <c r="I11" s="69">
+        <v>44874.25</v>
+      </c>
+      <c r="J11" s="67">
+        <v>145</v>
+      </c>
+      <c r="K11" s="73">
+        <v>10301</v>
+      </c>
+      <c r="L11" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="64" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="121"/>
+    </row>
+    <row r="12" spans="3:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="64">
+        <v>29148814</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="67">
+        <v>1189</v>
+      </c>
+      <c r="G12" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="69">
+        <v>44870.8125</v>
+      </c>
+      <c r="I12" s="69">
+        <v>44873.427083333336</v>
+      </c>
+      <c r="J12" s="67">
+        <v>63</v>
+      </c>
+      <c r="K12" s="73">
+        <v>3121.1</v>
+      </c>
+      <c r="L12" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="121"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="121"/>
+    </row>
+    <row r="14" spans="3:14" ht="57" x14ac:dyDescent="0.25">
+      <c r="C14" s="64">
+        <v>61849154</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="67">
+        <v>1700</v>
+      </c>
+      <c r="G14" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="69">
+        <v>44870.8125</v>
+      </c>
+      <c r="I14" s="69">
+        <v>44874.25</v>
+      </c>
+      <c r="J14" s="67">
+        <v>83</v>
+      </c>
+      <c r="K14" s="75">
+        <v>4409.3999999999996</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="M14" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" s="121"/>
+    </row>
+    <row r="17" spans="3:14" ht="48" x14ac:dyDescent="0.25">
+      <c r="C17" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="G17" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="79" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="M17" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="N17" s="81"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="82">
+        <v>1</v>
+      </c>
+      <c r="D18" s="82">
+        <v>56727951</v>
+      </c>
+      <c r="E18" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="84">
+        <v>44738.1875</v>
+      </c>
+      <c r="G18" s="84">
+        <v>44755.75</v>
+      </c>
+      <c r="H18" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I18" s="85">
+        <v>17.5625</v>
+      </c>
+      <c r="J18" s="78">
+        <v>2</v>
+      </c>
+      <c r="K18" s="86">
+        <v>18</v>
+      </c>
+      <c r="L18" s="87">
+        <v>475</v>
+      </c>
+      <c r="M18" s="88">
+        <v>7600</v>
+      </c>
+      <c r="N18" s="81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="82">
+        <v>1</v>
+      </c>
+      <c r="D19" s="82">
+        <v>56727951</v>
+      </c>
+      <c r="E19" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="84">
+        <v>44738.1875</v>
+      </c>
+      <c r="G19" s="84">
+        <v>44755.75</v>
+      </c>
+      <c r="H19" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I19" s="85">
+        <v>17.5625</v>
+      </c>
+      <c r="J19" s="78">
+        <v>3</v>
+      </c>
+      <c r="K19" s="86">
+        <v>18</v>
+      </c>
+      <c r="L19" s="87">
+        <v>475</v>
+      </c>
+      <c r="M19" s="88">
+        <v>7125</v>
+      </c>
+      <c r="N19" s="81" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="N10:N14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/ТЗ/Форма экранная для расчета платы с примерами 18.11.2022.xlsx
+++ b/Documents/ТЗ/Форма экранная для расчета платы с примерами 18.11.2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297FA9D6-EAB7-4FA7-A4F3-CD37DBAC1172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19CB70-24EF-4545-9EB8-EDB1448C9BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ПЛАТА " sheetId="2" r:id="rId1"/>
@@ -5492,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S77"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7313,7 +7313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E61DE8B-14D5-4D62-B1AC-EA4B25406883}">
   <dimension ref="C9:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>

--- a/Documents/ТЗ/Форма экранная для расчета платы с примерами 18.11.2022.xlsx
+++ b/Documents/ТЗ/Форма экранная для расчета платы с примерами 18.11.2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Мои документы\Visual Studio 2019\Project\Work\IDS_RailWay\Documents\ТЗ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A19CB70-24EF-4545-9EB8-EDB1448C9BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B432BE2-424B-425C-AC03-226A07EE37B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1870,6 +1870,24 @@
     <xf numFmtId="2" fontId="0" fillId="35" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1896,24 +1914,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5492,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T50" sqref="T50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5517,15 +5517,15 @@
       </c>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="P2" s="115" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="P2" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
     </row>
     <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P3" s="1" t="s">
@@ -5840,21 +5840,21 @@
       </c>
     </row>
     <row r="13" spans="2:18" s="23" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="111"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="111"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="111"/>
-      <c r="M13" s="111"/>
-      <c r="N13" s="112"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="118"/>
       <c r="P13" s="57">
         <v>20</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="108" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="62" t="s">
@@ -5902,7 +5902,7 @@
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="117"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="62" t="s">
         <v>98</v>
       </c>
@@ -5922,7 +5922,7 @@
     <row r="16" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="20"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="118"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="62" t="s">
         <v>99</v>
       </c>
@@ -6049,15 +6049,15 @@
       <c r="N20" s="9"/>
     </row>
     <row r="21" spans="2:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="113" t="s">
+      <c r="B21" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="119" t="s">
+      <c r="C21" s="120"/>
+      <c r="D21" s="110" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -6071,11 +6071,11 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="113"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -6087,7 +6087,7 @@
       <c r="P22" s="91" t="s">
         <v>91</v>
       </c>
-      <c r="S22" s="109" t="s">
+      <c r="S22" s="115" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6096,9 +6096,9 @@
         <v>61</v>
       </c>
       <c r="C23" s="13"/>
-      <c r="D23" s="119"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -6112,30 +6112,30 @@
         <v>92</v>
       </c>
       <c r="R23" s="63"/>
-      <c r="S23" s="109"/>
+      <c r="S23" s="115"/>
     </row>
     <row r="24" spans="2:19" s="23" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="110" t="s">
+      <c r="B24" s="116" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="111"/>
-      <c r="N24" s="112"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
+      <c r="J24" s="117"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="118"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="62" t="s">
         <v>98</v>
       </c>
       <c r="R24" s="63"/>
-      <c r="S24" s="109"/>
+      <c r="S24" s="115"/>
     </row>
     <row r="25" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="29" t="s">
@@ -6160,7 +6160,7 @@
         <v>99</v>
       </c>
       <c r="R25" s="63"/>
-      <c r="S25" s="109"/>
+      <c r="S25" s="115"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
@@ -6181,7 +6181,7 @@
         <v>86</v>
       </c>
       <c r="R26" s="8"/>
-      <c r="S26" s="109"/>
+      <c r="S26" s="115"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
@@ -6275,21 +6275,21 @@
       <c r="N31" s="12"/>
     </row>
     <row r="34" spans="2:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="120"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="120"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="120"/>
-      <c r="M34" s="120"/>
-      <c r="N34" s="120"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
     </row>
     <row r="35" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="51" t="s">
@@ -6736,14 +6736,14 @@
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="106" t="s">
+      <c r="B67" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="C67" s="107"/>
-      <c r="D67" s="107"/>
-      <c r="E67" s="107"/>
-      <c r="F67" s="107"/>
-      <c r="G67" s="108"/>
+      <c r="C67" s="113"/>
+      <c r="D67" s="113"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="113"/>
+      <c r="G67" s="114"/>
       <c r="H67" s="100"/>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -6826,14 +6826,14 @@
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="106" t="s">
+      <c r="B71" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="C71" s="107"/>
-      <c r="D71" s="107"/>
-      <c r="E71" s="107"/>
-      <c r="F71" s="107"/>
-      <c r="G71" s="108"/>
+      <c r="C71" s="113"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="113"/>
+      <c r="G71" s="114"/>
       <c r="H71" s="102"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -6925,17 +6925,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D21:F23"/>
-    <mergeCell ref="B34:N34"/>
     <mergeCell ref="B67:G67"/>
     <mergeCell ref="B71:G71"/>
     <mergeCell ref="S22:S26"/>
     <mergeCell ref="B13:N13"/>
     <mergeCell ref="B21:C22"/>
     <mergeCell ref="B24:N24"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="D21:F23"/>
+    <mergeCell ref="B34:N34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
